--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/67/incorrect_predictions_67.xlsx
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16-25</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/67/incorrect_predictions_67.xlsx
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>16-25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
